--- a/Data Files/C699New.xlsx
+++ b/Data Files/C699New.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GVVignesh\Katalon Studio\WGR-Android-Automation\Data Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAF1E91F-FB8B-4323-82CD-C3EEFA778C0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B886D876-7399-4D58-A71F-4B53C9B823FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -48,7 +48,7 @@
     <t>Dhoni</t>
   </si>
   <si>
-    <t>ishakthigv@gmail.com</t>
+    <t>ishakthigvvignesh@gmail.com</t>
   </si>
 </sst>
 </file>

--- a/Data Files/C699New.xlsx
+++ b/Data Files/C699New.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GVVignesh\Katalon Studio\WGR-Android-Automation\Data Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B886D876-7399-4D58-A71F-4B53C9B823FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C873D42-F8CC-4F3B-8EC7-CBEC7076C2CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3036" yWindow="3036" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -48,7 +48,7 @@
     <t>Dhoni</t>
   </si>
   <si>
-    <t>ishakthigvvignesh@gmail.com</t>
+    <t>dell@gmail.com</t>
   </si>
 </sst>
 </file>

--- a/Data Files/C699New.xlsx
+++ b/Data Files/C699New.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10315"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GVVignesh\Katalon Studio\WGR-Android-Automation\Data Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gv.vignesh/Downloads/WGR-Android-Automation/Data Files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C873D42-F8CC-4F3B-8EC7-CBEC7076C2CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB2306FF-7FEC-734D-8113-AD01D290321C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3036" yWindow="3036" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3040" yWindow="3040" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -42,13 +42,13 @@
     <t>email</t>
   </si>
   <si>
-    <t>MS</t>
-  </si>
-  <si>
-    <t>Dhoni</t>
-  </si>
-  <si>
-    <t>dell@gmail.com</t>
+    <t>GV</t>
+  </si>
+  <si>
+    <t>Vignesh</t>
+  </si>
+  <si>
+    <t>viratkohli@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -369,12 +369,12 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -391,7 +391,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>7</v>
       </c>

--- a/Data Files/C699New.xlsx
+++ b/Data Files/C699New.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gv.vignesh/Downloads/WGR-Android-Automation/Data Files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB2306FF-7FEC-734D-8113-AD01D290321C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BD06E80-A8FD-2E4E-A13E-04C2BD599189}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3040" yWindow="3040" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -48,7 +48,7 @@
     <t>Vignesh</t>
   </si>
   <si>
-    <t>viratkohli@gmail.com</t>
+    <t>iviratkohli@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -369,7 +369,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection sqref="A1:A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -414,4 +414,10 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
+<clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
+  <clbl:label id="{316ca6ad-4b43-451a-933b-52169d54028f}" enabled="1" method="Privileged" siteId="{ef36e35c-2520-4ae8-b6c1-67a6f14e3dde}" contentBits="0" removed="0"/>
+</clbl:labelList>
 </file>